--- a/results/rq10.xlsx
+++ b/results/rq10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkantek\Desktop\muni-priv\fi-dp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3372BD8B-B837-4939-BAA7-E02C5D19C4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61497B31-EFEB-47ED-993B-25DC777D58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{D2F3AF4D-31D1-49F5-B007-D3E3F23DB2F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21600" xr2:uid="{D2F3AF4D-31D1-49F5-B007-D3E3F23DB2F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
   <si>
     <t>copilot</t>
   </si>
@@ -103,6 +103,39 @@
   </si>
   <si>
     <t>same as previous case</t>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>wrong source  code</t>
+  </si>
+  <si>
+    <t>invalid file</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>wrong CPU threshold</t>
+  </si>
+  <si>
+    <t>case2.sh: 24: Syntax error: "(" unexpected</t>
+  </si>
+  <si>
+    <t>case4.sh: 13: Syntax error: "(" unexpected</t>
+  </si>
+  <si>
+    <t>case2.sh: 7: 0: not found</t>
+  </si>
+  <si>
+    <t>tar: : Cannot stattar (child): : Cannot open: No such file or directory</t>
+  </si>
+  <si>
+    <t>case2.sh: 14: [: Illegal number: 8.2</t>
+  </si>
+  <si>
+    <t>wrong handling of script parameters</t>
   </si>
 </sst>
 </file>
@@ -458,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E38BD48-7279-43D1-9B22-2DEF3032DBF9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +659,132 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
